--- a/medicine/Handicap/Kevin_Healey/Kevin_Healey.xlsx
+++ b/medicine/Handicap/Kevin_Healey/Kevin_Healey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kevin Healey est un militant pour les droits de la personne autiste. Il mène également des campagnes contre le harcèlement scolaire.
 </t>
@@ -511,9 +523,11 @@
           <t>Activisme dans l'autisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2001, Healey a fondé la North Staffordshire Asperger's &amp; Autism Association  (NSAAA)[1]. En 2007, il a fondé la  Staffordshire Adults Autistic Society (SAAS), qui fournit un soutien aux adultes avec autisme, y compris par des activités telles que des sorties ainsi que des programmes éducatifs et un service d'assistance[2],[3] En 2010, il a lancé une campagne intitulée « It's Time For Change — Stand-up For Autism » (Il est temps pour le changement — levons-nous pour l'autisme), qui vise à améliorer la réponse aux besoins des personnes avec autisme et de leurs familles au Royaume-Uni. Cette campagne a reçu le soutien de deux membres du Parlement et du public, et Healey remis une pétition au bureau du Premier Ministre, signée par 4 000 personnes en faveur d'une extension des services et du financement[4]. Il a également été un ambassadeur, ainsi qu'administrateur et trésorier, pour la National Autistic Society, qui est le plus grand organisme de bienfaisance lié à l'autisme au Royaume-Uni[5],[6],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2001, Healey a fondé la North Staffordshire Asperger's &amp; Autism Association  (NSAAA). En 2007, il a fondé la  Staffordshire Adults Autistic Society (SAAS), qui fournit un soutien aux adultes avec autisme, y compris par des activités telles que des sorties ainsi que des programmes éducatifs et un service d'assistance, En 2010, il a lancé une campagne intitulée « It's Time For Change — Stand-up For Autism » (Il est temps pour le changement — levons-nous pour l'autisme), qui vise à améliorer la réponse aux besoins des personnes avec autisme et de leurs familles au Royaume-Uni. Cette campagne a reçu le soutien de deux membres du Parlement et du public, et Healey remis une pétition au bureau du Premier Ministre, signée par 4 000 personnes en faveur d'une extension des services et du financement. Il a également été un ambassadeur, ainsi qu'administrateur et trésorier, pour la National Autistic Society, qui est le plus grand organisme de bienfaisance lié à l'autisme au Royaume-Uni.
 </t>
         </is>
       </c>
